--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C8ACF-68C2-42EA-972F-92B309859717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CAB556-CC6A-4875-8AB0-DB8DB894C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="7.28" sheetId="23" r:id="rId1"/>
-    <sheet name="模板" sheetId="7" r:id="rId2"/>
-    <sheet name="说明" sheetId="8" r:id="rId3"/>
+    <sheet name="模板" sheetId="7" r:id="rId1"/>
+    <sheet name="说明" sheetId="8" r:id="rId2"/>
+    <sheet name="7.28" sheetId="23" r:id="rId3"/>
+    <sheet name="7.29" sheetId="25" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>工作日报表</t>
   </si>
@@ -113,6 +114,137 @@
   <si>
     <t>学习 JavaScript 的面向对象编程和 jQuery 的基本选择器是非常重要的前端开发技能。通过学习，我深入了解了 JavaScript 中的对象和函数，以及如何使用它们创建对象、实现继承和封装代码。同时，我也掌握了 jQuery 的语法和基本选择器的使用，能够方便地操作和选择 DOM 元素。
 在学习过程中，我发现阅读相关文档和参考示例代码是理解和掌握新知识的关键。同时，通过练习和编写代码，我进一步巩固了所学的知识。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习jQuery的基础过滤选择器、子元素过滤选择器、内容过滤选择器、可见性过滤选择器、表单类型过滤器、表单状态过滤器。
+2.掌握DOM元素的创建、插入、克隆、替换操作。
+3.学习class操作和样式操作。
+4.了解如何查询当前元素的大小和位置。
+5.学习文本内容的封装和使用on、off方法绑定事件。
+6.掌握特殊事件绑定方式和窗口事件类型函数。
+7.学习表单事件函数和iQuery对象内置函数及属性。
+8.掌握iQuery对象的遍历方法。
+9.学习iQuery对特效的封装，包括淡入淡出、隐藏和显示、滑动的隐藏和显示。</t>
+  </si>
+  <si>
+    <t>1.已完成学习基础过滤选择器、子元素过滤选择器、内容过滤选择器、可见性过滤选择器、表单类型过滤器、表单状态过滤器。
+2.已掌握DOM元素的创建、插入、克降、替换操作。
+3.已学习class操作和样式操作。
+4.已了解如何查询当前元素的大小和位置。
+5.已学习文本内容的封装和使用on、off方法绑定事件。
+6.已掌握特殊事件绑定方式和窗口事件类型函数。
+7.已学习表单事件函数和jQuery对象内置函数及属性。
+8.已掌握iQuery对象的遍历方法。
+9.已学习iQuery对特效的封装，包括淡入淡出、隐藏和显示、滑动的隐藏和显示。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没有遇到任何问题，学习进度顺利。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学习jQuery的过程中，我对选择器和过滤器的使用有了更深入的理解，并且掌握了各种操作DOM 元素的方法。通过
+学习jQuery的封装特效，我可以更轻松地实现页面上的动画效果。jQuery提供了许多方便的方法和函数，使得操作和处理页面元素
+变得更加简洁高效。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020年__7__月__2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>__日</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -173,6 +305,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,16 +357,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +381,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,76 +662,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A195C3-EEFF-4367-991C-221007BA42BE}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -598,10 +676,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -633,7 +711,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -644,7 +722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -663,7 +741,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -681,4 +759,144 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A195C3-EEFF-4367-991C-221007BA42BE}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.46484375" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F526CFE2-4FE2-4DF9-93ED-5A77E9383A42}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CAB556-CC6A-4875-8AB0-DB8DB894C825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB2BD4B-AB85-4782-B325-DF42BD934004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
     <sheet name="说明" sheetId="8" r:id="rId2"/>
     <sheet name="7.28" sheetId="23" r:id="rId3"/>
     <sheet name="7.29" sheetId="25" r:id="rId4"/>
+    <sheet name="7.31" sheetId="26" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>工作日报表</t>
   </si>
@@ -95,11 +96,6 @@
   </si>
   <si>
     <t>新的工作表命名为:月.日   例如7月2日的日报命名为7.02</t>
-  </si>
-  <si>
-    <t>1.学习 JavaScript 的面向对象编程，包括 Object 对象、Function 对象、对象的创建模式、寄生组合继承模式、闭包和模块。
-2。学习 jQuery 的语法、DOM 与 jQuery 对象的转换以及基本选择器的使用。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1.已完成学习 JavaScript 的面向对象编程，包括 Object 对象、Function 对象、对象的创建模式、寄生组合继承模式、闭包和模块。
@@ -247,12 +243,34 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>1.学习 JavaScript 的面向对象编程，包括 Object 对象、Function 对象、对象的创建模式、寄生组合继承模式、闭包和模块。
+2。学习 jQuery 的语法、DOM 与 jQuery 对象的转换以及基本选择器的使用。</t>
+  </si>
+  <si>
+    <t>1.学习MySQL的简单查询、LIMIT、分组、INNER JOIN、LEFT JOIN、RIGHT JOIN、UNION、UNION
+ALL、DISTINCT、子查询等操作。
+2.学习JDBC的增删改查操作。</t>
+  </si>
+  <si>
+    <t>1.已学习 MySQL 的简单查询、LIMIT、分组、INNER JOIN、LEFT JOIN、RIGHT JOIN、UNION、
+UNIONALL、DISTINCT、子查询等操作，并完成/两道练题。
+2.已学习JDBC的增删改查操作。</t>
+  </si>
+  <si>
+    <t>在学习MySQL 的查询语句和 JDBC 的操作过程中，没有遇到明显的问题，学习进展顺利。</t>
+  </si>
+  <si>
+    <t>通过字习MySQL的查询语句和JDBC的操作，我掌握了在数据库中进行数据查询和操作的基本技巧。字）
+了简单查询、LIMIT、分组、JOIN、UNION、DISTINCT、子查询等常用操作，这些知识对于处理实际的数
+据库操作非常有帮助。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -357,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,17 +394,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,19 +690,19 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.46484375" customWidth="1"/>
     <col min="2" max="2" width="67.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,25 +710,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,27 +751,27 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="119.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -765,60 +786,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A195C3-EEFF-4367-991C-221007BA42BE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.46484375" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="60" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -835,60 +856,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F526CFE2-4FE2-4DF9-93ED-5A77E9383A42}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.46484375" customWidth="1"/>
     <col min="2" max="2" width="67.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -899,4 +920,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A0FC19-67F8-4039-8FD6-85B0B1527A12}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
 </file>
--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB2BD4B-AB85-4782-B325-DF42BD934004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B66D32-CB41-49A0-AFCD-BC9EA06BC531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>工作日报表</t>
   </si>
@@ -264,6 +264,45 @@
     <t>通过字习MySQL的查询语句和JDBC的操作，我掌握了在数据库中进行数据查询和操作的基本技巧。字）
 了简单查询、LIMIT、分组、JOIN、UNION、DISTINCT、子查询等常用操作，这些知识对于处理实际的数
 据库操作非常有帮助。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__7__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__31__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -400,14 +439,14 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -797,10 +836,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="60" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -867,10 +906,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -926,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A0FC19-67F8-4039-8FD6-85B0B1527A12}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -937,17 +976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -978,7 +1017,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B66D32-CB41-49A0-AFCD-BC9EA06BC531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA173FC-5583-4B92-AFE8-039A5740F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="7.28" sheetId="23" r:id="rId3"/>
     <sheet name="7.29" sheetId="25" r:id="rId4"/>
     <sheet name="7.31" sheetId="26" r:id="rId5"/>
+    <sheet name="8.1" sheetId="27" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>工作日报表</t>
   </si>
@@ -303,6 +304,64 @@
       </rPr>
       <t>日</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__1__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习MyBatis的入门和配置
+掌握动态SQL的使用方法</t>
+  </si>
+  <si>
+    <t>学习了MyBatis的基本概念和原理，了解了它在Java项目中的作用和优势。
+完成了MyBatis的配置，包括设置数据库连接、配置Mapper文件和SqlSessionFactory等。
+学习了动态SQL的使用方法，包括if、choose、when、otherwise等标签的使用，以及使用foreach进行循环操作。
+实践了一些简单的动态SQL场景，如根据条件查询数据、动态拼接SQL语句等。</t>
+  </si>
+  <si>
+    <t>在配置MyBatis时遇到了一些问题，特别是在设置数据库连接方面。经过查阅文档和进行调试，最终成功解决了问题。
+在学习动态SQL时，有时候对于复杂的逻辑判断和循环操作，需要仔细思考和调试，以确保SQL语句的正确性。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对MyBatis的入门和配置有了更深入的了解。它是一个强大的持久层框架，可以帮助简化数据库操作，并提供了灵活的动态SQL功能。
+动态SQL的使用可以根据不同的条件和场景生成不同的SQL语句，提高了查询和操作的灵活性和效率。
+在工作中，遇到问题时要善于查阅文档和寻求帮助，同时进行适当的调试和测试，以解决问题并提高自己的技能。</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A0FC19-67F8-4039-8FD6-85B0B1527A12}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1027,4 +1086,72 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C6B2F-667D-46C3-B003-C7F44671DF57}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
 </file>
--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA173FC-5583-4B92-AFE8-039A5740F7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E36810-A37E-4393-B15A-552AA66D58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="7.29" sheetId="25" r:id="rId4"/>
     <sheet name="7.31" sheetId="26" r:id="rId5"/>
     <sheet name="8.1" sheetId="27" r:id="rId6"/>
+    <sheet name="8.2" sheetId="28" r:id="rId7"/>
+    <sheet name="8.3" sheetId="29" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>工作日报表</t>
   </si>
@@ -362,6 +364,122 @@
     <t>通过今天的学习，我对MyBatis的入门和配置有了更深入的了解。它是一个强大的持久层框架，可以帮助简化数据库操作，并提供了灵活的动态SQL功能。
 动态SQL的使用可以根据不同的条件和场景生成不同的SQL语句，提高了查询和操作的灵活性和效率。
 在工作中，遇到问题时要善于查阅文档和寻求帮助，同时进行适当的调试和测试，以解决问题并提高自己的技能。</t>
+  </si>
+  <si>
+    <t>学习MyBatis的多表查询功能
+掌握在MyBatis中进行多表查询的方法和技巧</t>
+  </si>
+  <si>
+    <t>学习了MyBatis中进行多表查询的不同方式，包括使用嵌套查询、联合查询和关联映射等方法。
+实践了多个示例场景，如查询关联表的数据、使用嵌套查询获取嵌套对象等。
+熟悉了MyBatis中的resultMap配置，用于定义多表查询的结果映射关系，以便方便地获取关联对象的数据。</t>
+  </si>
+  <si>
+    <t>在进行多表查询时，遇到了一些复杂的关联关系和查询逻辑。需要仔细分析和设计SQL语句，以确保查询结果的准确性和性能。
+在配置resultMap时，有时候需要处理多个表之间的关联关系，需要注意配置的正确性和一致性。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对MyBatis的多表查询有了更深入的了解。多表查询是在实际项目中经常遇到的需求，掌握了相关技巧和方法可以提高数据查询的效率和灵活性。
+在进行多表查询时，需要仔细分析和设计SQL语句，充分理解表之间的关联关系，并使用合适的查询方式和结果映射配置。
+MyBatis提供了丰富的多表查询功能和灵活的结果映射配置，可以满足不同场景的需求。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__2__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__3__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习MyBatis的TypeHandler、PageHelper以及Spring的IOC和属性注入
+理解TypeHandler的作用和使用方法，掌握PageHelper在分页查询中的应用
+学习Spring的IOC容器和属性注入的概念和用法</t>
+  </si>
+  <si>
+    <t>学习了MyBatis的TypeHandler，了解了它在处理数据库字段和Java对象之间的类型转换中的作用。掌握了如何自定义TypeHandler以处理特定类型的转换需求。
+熟悉了PageHelper插件的使用，它可以方便地实现分页查询功能，提供了简单的配置和使用方式。
+学习了Spring的IOC容器，了解了它的概念和作用。掌握了通过XML配置和注解方式进行IOC容器的配置和Bean的管理。
+理解了属性注入的概念和用法，包括构造器注入和Setter方法注入。通过配置文件和注解，实现了属性的自动注入。</t>
+  </si>
+  <si>
+    <t>在学习TypeHandler时，遇到了一些复杂类型的转换问题，需要仔细阅读文档和进行实验来解决。
+在配置Spring的IOC容器时，有时候需要注意Bean的命名和作用域等配置，以确保容器的正确运行。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对MyBatis的TypeHandler和PageHelper有了更深入的了解。TypeHandler可以帮助我们处理数据库字段和Java对象之间的类型转换，而PageHelper则提供了方便的分页查询功能。
+Spring的IOC容器和属性注入是实现依赖注入的重要工具，可以帮助我们解耦和管理对象之间的依赖关系。
+在实际工作中，合理使用TypeHandler、PageHelper和Spring的IOC容器可以提高开发效率和代码质量。</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C6B2F-667D-46C3-B003-C7F44671DF57}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1154,4 +1272,141 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784F382D-97F0-4A84-AA9F-649FE195A1C6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E0A1C-32E6-495C-84CD-226B48F68124}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
 </file>
--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E36810-A37E-4393-B15A-552AA66D58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B619163-BC4B-4D79-BC6E-343AEC14D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="8.1" sheetId="27" r:id="rId6"/>
     <sheet name="8.2" sheetId="28" r:id="rId7"/>
     <sheet name="8.3" sheetId="29" r:id="rId8"/>
+    <sheet name="8.4" sheetId="30" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>工作日报表</t>
   </si>
@@ -480,6 +481,65 @@
     <t>通过今天的学习，我对MyBatis的TypeHandler和PageHelper有了更深入的了解。TypeHandler可以帮助我们处理数据库字段和Java对象之间的类型转换，而PageHelper则提供了方便的分页查询功能。
 Spring的IOC容器和属性注入是实现依赖注入的重要工具，可以帮助我们解耦和管理对象之间的依赖关系。
 在实际工作中，合理使用TypeHandler、PageHelper和Spring的IOC容器可以提高开发效率和代码质量。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__4__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习和实践Spring AOP和Spring MVC
+理解Spring AOP的概念和用途
+实现日志记录功能使用AOP
+配置和使用Spring MVC的关键组件
+完成Spring MVC应用程序的配置和请求处理</t>
+  </si>
+  <si>
+    <t>学习了Spring AOP的原理和目的，了解了如何将横切关注点从核心业务逻辑中分离出来
+使用AOP实现了日志记录功能，通过XML配置文件配置了切面和通知
+学习了Spring MVC的控制器、视图解析器和请求映射等关键概念
+使用XML文件成功配置了一个简单的Spring MVC应用程序，能够处理请求和显示视图</t>
+  </si>
+  <si>
+    <t>在配置Spring AOP的过程中遇到了一些困难，特别是在配置切面和通知时遇到了一些错误。通过查阅文档、调试和仔细检查配置文件，成功解决了这些问题。
+在配置Spring MVC的视图解析器时遇到了一些错误。通过检查配置文件和调试，最终解决了这个问题。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对Spring AOP和Spring MVC有了全面的了解。我学会了如何配置和使用这些技术，以实现横切关注点的分离和构建基于Spring MVC的Web应用程序。在解决问题的过程中，我学会了查阅文档、调试代码和仔细检查配置文件的重要性。这些知识和经验对今后处理面向切面编程和构建基于Spring MVC的Web应用程序的开发任务将非常有价值。</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E0A1C-32E6-495C-84CD-226B48F68124}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1409,4 +1469,72 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335975E7-2E63-49D8-9C62-E32AEBF291F7}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
 </file>
--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B619163-BC4B-4D79-BC6E-343AEC14D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED0ED6B-0EA9-4061-BED5-8416B7A1EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="8.2" sheetId="28" r:id="rId7"/>
     <sheet name="8.3" sheetId="29" r:id="rId8"/>
     <sheet name="8.4" sheetId="30" r:id="rId9"/>
+    <sheet name="8.5" sheetId="31" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>工作日报表</t>
   </si>
@@ -540,6 +541,65 @@
   </si>
   <si>
     <t>通过今天的学习和实践，我对Spring AOP和Spring MVC有了全面的了解。我学会了如何配置和使用这些技术，以实现横切关注点的分离和构建基于Spring MVC的Web应用程序。在解决问题的过程中，我学会了查阅文档、调试代码和仔细检查配置文件的重要性。这些知识和经验对今后处理面向切面编程和构建基于Spring MVC的Web应用程序的开发任务将非常有价值。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__5__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习 Jackson 库，了解其在 Java 中的 JSON 处理能力。
+学习 Spring Boot 框架，掌握其基本概念和用法。
+学习 YAML（YAML Ain't Markup Language），了解其语法和在 Spring Boot 中的配置使用。
+完成相关练习和实践，包括使用 Jackson 解析和生成 JSON 数据，使用 Spring Boot 创建简单的 Web 应用，并使用 YAML 进行配置。</t>
+  </si>
+  <si>
+    <t>学习了 Jackson 库，了解了其在 Java 中处理 JSON 数据的能力，并成功完成相关练习。
+学习了 Spring Boot 框架的基本概念和用法，包括创建 Spring Boot 应用、配置依赖和处理请求等，并完成了相应的练习。
+学习了 YAML 语法和在 Spring Boot 中的配置使用，包括配置数据源、日志和应用属性等，并成功完成相关练习。
+完成了相关练习和实践，包括使用 Jackson 解析和生成 JSON 数据，使用 Spring Boot 创建简单的 Web 应用，并使用 YAML 进行配置。</t>
+  </si>
+  <si>
+    <t>在使用 Jackson 进行 JSON 解析时，遇到了一些复杂数据结构的处理困难，但通过查阅文档和示例代码，最终成功解决了问题。
+在配置 Spring Boot 应用时，遇到了一些依赖冲突和版本兼容性的问题，但通过调整依赖版本和配置文件，成功解决了这些问题。</t>
+  </si>
+  <si>
+    <t>通过学习 Jackson、Spring Boot 和 YAML，我对 JSON 数据处理、构建 Web 应用和配置管理有了更深入的了解。这些技术在实际开发中具有广泛的应用，对于构建现代化的、可扩展的应用程序非常有帮助。
+在今天的学习中，我发现文档和示例代码是非常有价值的资源。它们帮助我理解了这些技术的基本概念和用法，并提供了解决问题的指导。同时，遇到问题时，查阅文档和搜索相关问题的解决方案也是很重要的。</t>
   </si>
 </sst>
 </file>
@@ -1019,6 +1079,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABF7913-1F92-45B5-A9E0-DE255EF9BB7C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A4"/>
@@ -1475,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335975E7-2E63-49D8-9C62-E32AEBF291F7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED0ED6B-0EA9-4061-BED5-8416B7A1EADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065E6DE-E47F-4B0E-9A05-9895528D39B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="8.3" sheetId="29" r:id="rId8"/>
     <sheet name="8.4" sheetId="30" r:id="rId9"/>
     <sheet name="8.5" sheetId="31" r:id="rId10"/>
+    <sheet name="8.7" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>工作日报表</t>
   </si>
@@ -600,6 +601,60 @@
   <si>
     <t>通过学习 Jackson、Spring Boot 和 YAML，我对 JSON 数据处理、构建 Web 应用和配置管理有了更深入的了解。这些技术在实际开发中具有广泛的应用，对于构建现代化的、可扩展的应用程序非常有帮助。
 在今天的学习中，我发现文档和示例代码是非常有价值的资源。它们帮助我理解了这些技术的基本概念和用法，并提供了解决问题的指导。同时，遇到问题时，查阅文档和搜索相关问题的解决方案也是很重要的。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__7__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习Spring Boot配置文件的使用方法。
+学习Spring Boot与MyBatis的整合方式。</t>
+  </si>
+  <si>
+    <t>已完成学习Spring Boot配置文件的使用方法，并实践了一些常用配置，如数据库连接配置、日志配置等。
+已完成学习Spring Boot与MyBatis的整合方式，包括配置MyBatis依赖、创建Mapper接口和XML映射文件等。</t>
+  </si>
+  <si>
+    <t>在配置文件中遇到了一些语法错误，导致应用启动失败。经过查找和调试，发现是由于缺少必要的引号和逗号导致的。通过修复这些错误，成功解决了启动问题。
+在整合MyBatis过程中，遇到了数据库连接失败的问题。经过检查发现，数据库的连接配置有误，修改后成功连接数据库。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对Spring Boot的配置文件和MyBatis的整合有了更深入的了解。配置文件的正确编写对应用的启动非常重要，需要仔细检查语法和格式。整合MyBatis时，需要确保数据库连接配置正确，并创建正确的Mapper接口和XML映射文件。在工作中，遇到的问题都是可以通过仔细排查和调试解决的，这也提醒我在编码过程中要更加细致和注意细节。</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABF7913-1F92-45B5-A9E0-DE255EF9BB7C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1137,6 +1192,74 @@
       </c>
       <c r="B6" s="8" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D18EF-53DD-48F0-82F8-5250E322B3C2}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3065E6DE-E47F-4B0E-9A05-9895528D39B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB859A-55A0-49FC-B223-30A002191042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="8.4" sheetId="30" r:id="rId9"/>
     <sheet name="8.5" sheetId="31" r:id="rId10"/>
     <sheet name="8.7" sheetId="32" r:id="rId11"/>
+    <sheet name="8.8" sheetId="33" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>工作日报表</t>
   </si>
@@ -655,6 +656,62 @@
   </si>
   <si>
     <t>通过今天的学习和实践，我对Spring Boot的配置文件和MyBatis的整合有了更深入的了解。配置文件的正确编写对应用的启动非常重要，需要仔细检查语法和格式。整合MyBatis时，需要确保数据库连接配置正确，并创建正确的Mapper接口和XML映射文件。在工作中，遇到的问题都是可以通过仔细排查和调试解决的，这也提醒我在编码过程中要更加细致和注意细节。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习 Spring Boot 异常处理机制。
+掌握 Spring Boot 定时任务的使用方法。
+开发一个简单的 Spring Boot Web 应用程序。</t>
+  </si>
+  <si>
+    <t>学习了 Spring Boot 异常处理机制，包括全局异常处理和局部异常处理。了解了如何使用 @ControllerAdvice 和 @ExceptionHandler 注解来处理异常，并实践了一些常见的异常处理场景。
+掌握了 Spring Boot 定时任务的使用方法。使用 @Scheduled 注解创建了一个简单的定时任务，并成功运行和测试了任务的调度和执行。
+完成了一个基本的 Spring Boot Web 应用程序的开发。创建了控制器，定义了路由，并实现了处理请求和返回响应的功能。</t>
+  </si>
+  <si>
+    <t>在异常处理方面，遇到了一些复杂的异常场景，需要进一步学习和实践来提高处理能力。特别是在处理多个异常类型时，需要更深入地了解异常处理的最佳实践。
+在定时任务的配置过程中，遇到了一些调度时间设置的困惑。需要进一步研究和实践，以了解更高级的调度配置选项和使用场景。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对 Spring Boot 异常处理、定时任务和 Web 开发有了更深入的了解。异常处理的学习让我认识到在应用程序中如何优雅地处理异常情况，提高了代码的可靠性和可维护性。定时任务的掌握使我能够在应用程序中实现定时执行的功能，提高了应用的灵活性和效率。Web 开发的实践让我熟悉了 Spring Boot 的 MVC 架构和请求-响应的处理流程。</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D18EF-53DD-48F0-82F8-5250E322B3C2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1260,6 +1317,74 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C97A15-8852-4929-AECC-4A159AE43EC5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB859A-55A0-49FC-B223-30A002191042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE0F0E-746A-4110-8299-D56933AE7DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="8.5" sheetId="31" r:id="rId10"/>
     <sheet name="8.7" sheetId="32" r:id="rId11"/>
     <sheet name="8.8" sheetId="33" r:id="rId12"/>
+    <sheet name="8.9" sheetId="34" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>工作日报表</t>
   </si>
@@ -712,6 +713,60 @@
   </si>
   <si>
     <t>通过今天的学习和实践，我对 Spring Boot 异常处理、定时任务和 Web 开发有了更深入的了解。异常处理的学习让我认识到在应用程序中如何优雅地处理异常情况，提高了代码的可靠性和可维护性。定时任务的掌握使我能够在应用程序中实现定时执行的功能，提高了应用的灵活性和效率。Web 开发的实践让我熟悉了 Spring Boot 的 MVC 架构和请求-响应的处理流程。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__9__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习 Redis 的基本概念和常用命令。
+探索 Spring Boot 和 Redis 的集成方式，并实践一些简单的操作。
+了解 Vue 的基本概念和语法。</t>
+  </si>
+  <si>
+    <t>学习了 Redis 的基本概念和常用命令，包括键值存储、数据类型和常见操作等。
+成功集成了 Spring Boot 和 Redis，实践了一些简单的操作，如设置键值对、获取键值对等。
+了解了 Vue 的基本概念和语法，包括组件、指令和数据绑定等。</t>
+  </si>
+  <si>
+    <t>在学习 Redis 过程中，遇到了一些命令的用法不熟悉的情况，需要进一步的练习和实践来加深理解。
+在集成 Spring Boot 和 Redis 的过程中，遇到了一些配置和依赖的问题，但通过查阅文档和示例代码解决了这些问题。
+在了解 Vue 的过程中，对一些概念和语法还不够熟悉，需要进一步的学习和实践来掌握。</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C97A15-8852-4929-AECC-4A159AE43EC5}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1385,6 +1440,74 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B560C-B6FC-41E7-9F26-44D82CC10A43}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE0F0E-746A-4110-8299-D56933AE7DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C665E6F-6784-47E4-8060-549E66AE9716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="8.7" sheetId="32" r:id="rId11"/>
     <sheet name="8.8" sheetId="33" r:id="rId12"/>
     <sheet name="8.9" sheetId="34" r:id="rId13"/>
+    <sheet name="8.10" sheetId="35" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>工作日报表</t>
   </si>
@@ -767,6 +768,64 @@
     <t>在学习 Redis 过程中，遇到了一些命令的用法不熟悉的情况，需要进一步的练习和实践来加深理解。
 在集成 Spring Boot 和 Redis 的过程中，遇到了一些配置和依赖的问题，但通过查阅文档和示例代码解决了这些问题。
 在了解 Vue 的过程中，对一些概念和语法还不够熟悉，需要进一步的学习和实践来掌握。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__10__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习 Vue 模板语法、常用指令、计算属性、侦听器和 Vue 生命周期钩子。
+实践使用模板元素的 ref 属性。</t>
+  </si>
+  <si>
+    <t>学习了 Vue 模板语法，包括插值表达式、指令和事件处理。
+熟悉了常用指令，如 v-bind、v-if、v-for 和 v-on。
+掌握了计算属性的使用方法，以及它们在动态计算数据时的优势。
+学习了侦听器的概念和用法，可以在数据变化时执行相应的操作。
+理解了 Vue 生命周期钩子函数的执行顺序和各个阶段的用途。
+实践了使用模板元素的 ref 属性，可以在代码中通过 ref 引用元素并进行操作。</t>
+  </si>
+  <si>
+    <t>在编写 Vue 代码时，遇到了按钮无法触发方法的问题。通过将按钮放在与 Vue 实例绑定的元素内解决了该问题。
+在使用侦听器时，初始尝试直接侦听对象的属性时遇到了问题，后来通过侦听对象的 getter 函数解决了该问题。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对 Vue 的模板语法、常用指令、计算属性、侦听器和生命周期钩子有了更深入的了解。掌握这些核心概念和技术，我能够更好地构建 Vue 应用程序并处理数据的动态变化。在工作中遇到的问题也提醒我要注意 Vue 的语法和用法，确保代码的正确性和可靠性。在接下来的工作中，我将继续巩固所学的知识，并尽可能应用到实际项目中，以提高自己的 Vue 开发能力。</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B560C-B6FC-41E7-9F26-44D82CC10A43}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1508,6 +1567,74 @@
       </c>
       <c r="B6" s="8" t="s">
         <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CFD151-6F09-44B0-B4BF-4427AC4C1C5C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C665E6F-6784-47E4-8060-549E66AE9716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C9910-3537-46AD-99C1-C729A6D47E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="8.8" sheetId="33" r:id="rId12"/>
     <sheet name="8.9" sheetId="34" r:id="rId13"/>
     <sheet name="8.10" sheetId="35" r:id="rId14"/>
+    <sheet name="8.11" sheetId="36" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>工作日报表</t>
   </si>
@@ -826,6 +827,62 @@
   </si>
   <si>
     <t>通过今天的学习和实践，我对 Vue 的模板语法、常用指令、计算属性、侦听器和生命周期钩子有了更深入的了解。掌握这些核心概念和技术，我能够更好地构建 Vue 应用程序并处理数据的动态变化。在工作中遇到的问题也提醒我要注意 Vue 的语法和用法，确保代码的正确性和可靠性。在接下来的工作中，我将继续巩固所学的知识，并尽可能应用到实际项目中，以提高自己的 Vue 开发能力。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__11__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 学习nodejs的基础知识和应用；
+2. 掌握vue cli的使用方法；
+3. 学习在nodejs中使用vue。</t>
+  </si>
+  <si>
+    <t>1. 学习了nodejs的基础知识和应用，包括模块化、文件操作、网络编程等；
+2. 掌握了vue cli的使用方法，包括创建项目、添加插件、运行项目等；
+3. 学习了在nodejs中使用vue的方法，包括使用vue-server-renderer渲染页面、使用vue-router进行路由管理等。</t>
+  </si>
+  <si>
+    <t>1. 在学习nodejs时，遇到了一些概念比较抽象的地方，需要反复查阅资料才能理解；
+2. 在使用vue-cli创建项目时，由于网络问题导致下载速度较慢，耗费了较多时间。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对nodejs和vue cli有了更深入的了解，并且学会了在nodejs中使用vue。在以后的开发工作中，我可以更加灵活地运用这些技术，提高开发效率。同时，我也认识到自己在学习过程中还存在一些不足之处，需要继续努力提升自己的学习能力。</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CFD151-6F09-44B0-B4BF-4427AC4C1C5C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1635,6 +1692,74 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9E9A5-F70B-44E9-BA38-C6CFF49D02A9}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43C9910-3537-46AD-99C1-C729A6D47E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45BF1FC-6896-478B-98A8-E6D8DB7E2369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="8.9" sheetId="34" r:id="rId13"/>
     <sheet name="8.10" sheetId="35" r:id="rId14"/>
     <sheet name="8.11" sheetId="36" r:id="rId15"/>
+    <sheet name="8.12" sheetId="37" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>工作日报表</t>
   </si>
@@ -883,6 +884,57 @@
   </si>
   <si>
     <t>通过今天的学习，我对nodejs和vue cli有了更深入的了解，并且学会了在nodejs中使用vue。在以后的开发工作中，我可以更加灵活地运用这些技术，提高开发效率。同时，我也认识到自己在学习过程中还存在一些不足之处，需要继续努力提升自己的学习能力。</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__8__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>__12__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>学习Vue组件与状态管理</t>
+  </si>
+  <si>
+    <t>今天我成功完成了学习Vue组件与状态管理的任务。我通过阅读文档、参考示例代码和完成练习，深入了解了Vue组件的概念和使用方法。我学会了如何创建和注册组件，以及如何在组件之间进行通信和共享状态。此外，我还学习了Vuex状态管理库的基本原理和用法</t>
+  </si>
+  <si>
+    <t>在学习过程中，我遇到了一些问题。其中一个问题是在组件通信方面的挑战。我发现在大型应用程序中，组件之间的通信可能变得复杂，特别是当组件层级嵌套较深时。我花了一些时间研究和实践，以找到最佳的组件通信方案。另一个问题是在使用Vuex时，我有时会感到困惑，特别是在处理异步操作和模块化状态时。我通过查阅文档和参考示例代码解决了这些问题。</t>
+  </si>
+  <si>
+    <t>通过学习Vue组件与状态管理，我对Vue框架的理解更加深入。我认识到组件化开发的优势，它可以提高代码的可维护性和重用性。状态管理的概念也让我意识到在应用程序中合理管理和共享状态的重要性。</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9E9A5-F70B-44E9-BA38-C6CFF49D02A9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1760,6 +1812,74 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726288C3-A4D8-4797-9273-942E15BC9E73}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45BF1FC-6896-478B-98A8-E6D8DB7E2369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0EB744-963D-4D4D-82BF-02A4BD6CD814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="8.10" sheetId="35" r:id="rId14"/>
     <sheet name="8.11" sheetId="36" r:id="rId15"/>
     <sheet name="8.12" sheetId="37" r:id="rId16"/>
+    <sheet name="8.14" sheetId="38" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>工作日报表</t>
   </si>
@@ -65,6 +66,115 @@
   </si>
   <si>
     <t>每次提交覆盖上一次的</t>
+  </si>
+  <si>
+    <t>新的工作表命名为:月.日   例如7月2日的日报命名为7.02</t>
+  </si>
+  <si>
+    <t>1.已完成学习 JavaScript 的面向对象编程，包括 Object 对象、Function 对象、对象的创建模式、寄生组合继承模式、闭包和模块。
+2.已完成学习 jQuery 的语法、DOM 与 jQuery 对象的转换以及基本选择器的使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对于 JavaScript 中的对象创建模式和寄生组合继承模式，理解起来有一定的难度。我花了一些时间查阅资料和阅读示例代码，最终成功理解了它们的概念和用法。
+2.在学习 jQuery 的选择器时，有时会遇到选择器表达式无法选中目标元素的情况。经过调试和仔细检查代码，我发现是由于选择器表达式书写错误导致的，及时修正后问题得到解决。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习 JavaScript 的面向对象编程和 jQuery 的基本选择器是非常重要的前端开发技能。通过学习，我深入了解了 JavaScript 中的对象和函数，以及如何使用它们创建对象、实现继承和封装代码。同时，我也掌握了 jQuery 的语法和基本选择器的使用，能够方便地操作和选择 DOM 元素。
+在学习过程中，我发现阅读相关文档和参考示例代码是理解和掌握新知识的关键。同时，通过练习和编写代码，我进一步巩固了所学的知识。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习jQuery的基础过滤选择器、子元素过滤选择器、内容过滤选择器、可见性过滤选择器、表单类型过滤器、表单状态过滤器。
+2.掌握DOM元素的创建、插入、克隆、替换操作。
+3.学习class操作和样式操作。
+4.了解如何查询当前元素的大小和位置。
+5.学习文本内容的封装和使用on、off方法绑定事件。
+6.掌握特殊事件绑定方式和窗口事件类型函数。
+7.学习表单事件函数和iQuery对象内置函数及属性。
+8.掌握iQuery对象的遍历方法。
+9.学习iQuery对特效的封装，包括淡入淡出、隐藏和显示、滑动的隐藏和显示。</t>
+  </si>
+  <si>
+    <t>1.已完成学习基础过滤选择器、子元素过滤选择器、内容过滤选择器、可见性过滤选择器、表单类型过滤器、表单状态过滤器。
+2.已掌握DOM元素的创建、插入、克降、替换操作。
+3.已学习class操作和样式操作。
+4.已了解如何查询当前元素的大小和位置。
+5.已学习文本内容的封装和使用on、off方法绑定事件。
+6.已掌握特殊事件绑定方式和窗口事件类型函数。
+7.已学习表单事件函数和jQuery对象内置函数及属性。
+8.已掌握iQuery对象的遍历方法。
+9.已学习iQuery对特效的封装，包括淡入淡出、隐藏和显示、滑动的隐藏和显示。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前没有遇到任何问题，学习进度顺利。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学习jQuery的过程中，我对选择器和过滤器的使用有了更深入的理解，并且掌握了各种操作DOM 元素的方法。通过
+学习jQuery的封装特效，我可以更轻松地实现页面上的动画效果。jQuery提供了许多方便的方法和函数，使得操作和处理页面元素
+变得更加简洁高效。</t>
+  </si>
+  <si>
+    <t>1.学习 JavaScript 的面向对象编程，包括 Object 对象、Function 对象、对象的创建模式、寄生组合继承模式、闭包和模块。
+2。学习 jQuery 的语法、DOM 与 jQuery 对象的转换以及基本选择器的使用。</t>
+  </si>
+  <si>
+    <t>1.学习MySQL的简单查询、LIMIT、分组、INNER JOIN、LEFT JOIN、RIGHT JOIN、UNION、UNION
+ALL、DISTINCT、子查询等操作。
+2.学习JDBC的增删改查操作。</t>
+  </si>
+  <si>
+    <t>1.已学习 MySQL 的简单查询、LIMIT、分组、INNER JOIN、LEFT JOIN、RIGHT JOIN、UNION、
+UNIONALL、DISTINCT、子查询等操作，并完成/两道练题。
+2.已学习JDBC的增删改查操作。</t>
+  </si>
+  <si>
+    <t>在学习MySQL 的查询语句和 JDBC 的操作过程中，没有遇到明显的问题，学习进展顺利。</t>
+  </si>
+  <si>
+    <t>通过字习MySQL的查询语句和JDBC的操作，我掌握了在数据库中进行数据查询和操作的基本技巧。字）
+了简单查询、LIMIT、分组、JOIN、UNION、DISTINCT、子查询等常用操作，这些知识对于处理实际的数
+据库操作非常有帮助。</t>
+  </si>
+  <si>
+    <t>学习MyBatis的入门和配置
+掌握动态SQL的使用方法</t>
+  </si>
+  <si>
+    <t>学习了MyBatis的基本概念和原理，了解了它在Java项目中的作用和优势。
+完成了MyBatis的配置，包括设置数据库连接、配置Mapper文件和SqlSessionFactory等。
+学习了动态SQL的使用方法，包括if、choose、when、otherwise等标签的使用，以及使用foreach进行循环操作。
+实践了一些简单的动态SQL场景，如根据条件查询数据、动态拼接SQL语句等。</t>
+  </si>
+  <si>
+    <t>在配置MyBatis时遇到了一些问题，特别是在设置数据库连接方面。经过查阅文档和进行调试，最终成功解决了问题。
+在学习动态SQL时，有时候对于复杂的逻辑判断和循环操作，需要仔细思考和调试，以确保SQL语句的正确性。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对MyBatis的入门和配置有了更深入的了解。它是一个强大的持久层框架，可以帮助简化数据库操作，并提供了灵活的动态SQL功能。
+动态SQL的使用可以根据不同的条件和场景生成不同的SQL语句，提高了查询和操作的灵活性和效率。
+在工作中，遇到问题时要善于查阅文档和寻求帮助，同时进行适当的调试和测试，以解决问题并提高自己的技能。</t>
+  </si>
+  <si>
+    <t>学习MyBatis的多表查询功能
+掌握在MyBatis中进行多表查询的方法和技巧</t>
+  </si>
+  <si>
+    <t>学习了MyBatis中进行多表查询的不同方式，包括使用嵌套查询、联合查询和关联映射等方法。
+实践了多个示例场景，如查询关联表的数据、使用嵌套查询获取嵌套对象等。
+熟悉了MyBatis中的resultMap配置，用于定义多表查询的结果映射关系，以便方便地获取关联对象的数据。</t>
+  </si>
+  <si>
+    <t>在进行多表查询时，遇到了一些复杂的关联关系和查询逻辑。需要仔细分析和设计SQL语句，以确保查询结果的准确性和性能。
+在配置resultMap时，有时候需要处理多个表之间的关联关系，需要注意配置的正确性和一致性。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对MyBatis的多表查询有了更深入的了解。多表查询是在实际项目中经常遇到的需求，掌握了相关技巧和方法可以提高数据查询的效率和灵活性。
+在进行多表查询时，需要仔细分析和设计SQL语句，充分理解表之间的关联关系，并使用合适的查询方式和结果映射配置。
+MyBatis提供了丰富的多表查询功能和灵活的结果映射配置，可以满足不同场景的需求。</t>
   </si>
   <si>
     <r>
@@ -76,7 +186,7 @@
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>____</t>
+      <t>__8__</t>
     </r>
     <r>
       <rPr>
@@ -93,7 +203,7 @@
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>____</t>
+      <t>__2__</t>
     </r>
     <r>
       <rPr>
@@ -106,58 +216,177 @@
     </r>
   </si>
   <si>
-    <t>新的工作表命名为:月.日   例如7月2日的日报命名为7.02</t>
-  </si>
-  <si>
-    <t>1.已完成学习 JavaScript 的面向对象编程，包括 Object 对象、Function 对象、对象的创建模式、寄生组合继承模式、闭包和模块。
-2.已完成学习 jQuery 的语法、DOM 与 jQuery 对象的转换以及基本选择器的使用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.对于 JavaScript 中的对象创建模式和寄生组合继承模式，理解起来有一定的难度。我花了一些时间查阅资料和阅读示例代码，最终成功理解了它们的概念和用法。
-2.在学习 jQuery 的选择器时，有时会遇到选择器表达式无法选中目标元素的情况。经过调试和仔细检查代码，我发现是由于选择器表达式书写错误导致的，及时修正后问题得到解决。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习 JavaScript 的面向对象编程和 jQuery 的基本选择器是非常重要的前端开发技能。通过学习，我深入了解了 JavaScript 中的对象和函数，以及如何使用它们创建对象、实现继承和封装代码。同时，我也掌握了 jQuery 的语法和基本选择器的使用，能够方便地操作和选择 DOM 元素。
-在学习过程中，我发现阅读相关文档和参考示例代码是理解和掌握新知识的关键。同时，通过练习和编写代码，我进一步巩固了所学的知识。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习jQuery的基础过滤选择器、子元素过滤选择器、内容过滤选择器、可见性过滤选择器、表单类型过滤器、表单状态过滤器。
-2.掌握DOM元素的创建、插入、克隆、替换操作。
-3.学习class操作和样式操作。
-4.了解如何查询当前元素的大小和位置。
-5.学习文本内容的封装和使用on、off方法绑定事件。
-6.掌握特殊事件绑定方式和窗口事件类型函数。
-7.学习表单事件函数和iQuery对象内置函数及属性。
-8.掌握iQuery对象的遍历方法。
-9.学习iQuery对特效的封装，包括淡入淡出、隐藏和显示、滑动的隐藏和显示。</t>
-  </si>
-  <si>
-    <t>1.已完成学习基础过滤选择器、子元素过滤选择器、内容过滤选择器、可见性过滤选择器、表单类型过滤器、表单状态过滤器。
-2.已掌握DOM元素的创建、插入、克降、替换操作。
-3.已学习class操作和样式操作。
-4.已了解如何查询当前元素的大小和位置。
-5.已学习文本内容的封装和使用on、off方法绑定事件。
-6.已掌握特殊事件绑定方式和窗口事件类型函数。
-7.已学习表单事件函数和jQuery对象内置函数及属性。
-8.已掌握iQuery对象的遍历方法。
-9.已学习iQuery对特效的封装，包括淡入淡出、隐藏和显示、滑动的隐藏和显示。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前没有遇到任何问题，学习进度顺利。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>在学习jQuery的过程中，我对选择器和过滤器的使用有了更深入的理解，并且掌握了各种操作DOM 元素的方法。通过
-学习jQuery的封装特效，我可以更轻松地实现页面上的动画效果。jQuery提供了许多方便的方法和函数，使得操作和处理页面元素
-变得更加简洁高效。</t>
+    <t>学习MyBatis的TypeHandler、PageHelper以及Spring的IOC和属性注入
+理解TypeHandler的作用和使用方法，掌握PageHelper在分页查询中的应用
+学习Spring的IOC容器和属性注入的概念和用法</t>
+  </si>
+  <si>
+    <t>学习了MyBatis的TypeHandler，了解了它在处理数据库字段和Java对象之间的类型转换中的作用。掌握了如何自定义TypeHandler以处理特定类型的转换需求。
+熟悉了PageHelper插件的使用，它可以方便地实现分页查询功能，提供了简单的配置和使用方式。
+学习了Spring的IOC容器，了解了它的概念和作用。掌握了通过XML配置和注解方式进行IOC容器的配置和Bean的管理。
+理解了属性注入的概念和用法，包括构造器注入和Setter方法注入。通过配置文件和注解，实现了属性的自动注入。</t>
+  </si>
+  <si>
+    <t>在学习TypeHandler时，遇到了一些复杂类型的转换问题，需要仔细阅读文档和进行实验来解决。
+在配置Spring的IOC容器时，有时候需要注意Bean的命名和作用域等配置，以确保容器的正确运行。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对MyBatis的TypeHandler和PageHelper有了更深入的了解。TypeHandler可以帮助我们处理数据库字段和Java对象之间的类型转换，而PageHelper则提供了方便的分页查询功能。
+Spring的IOC容器和属性注入是实现依赖注入的重要工具，可以帮助我们解耦和管理对象之间的依赖关系。
+在实际工作中，合理使用TypeHandler、PageHelper和Spring的IOC容器可以提高开发效率和代码质量。</t>
+  </si>
+  <si>
+    <t>学习和实践Spring AOP和Spring MVC
+理解Spring AOP的概念和用途
+实现日志记录功能使用AOP
+配置和使用Spring MVC的关键组件
+完成Spring MVC应用程序的配置和请求处理</t>
+  </si>
+  <si>
+    <t>学习了Spring AOP的原理和目的，了解了如何将横切关注点从核心业务逻辑中分离出来
+使用AOP实现了日志记录功能，通过XML配置文件配置了切面和通知
+学习了Spring MVC的控制器、视图解析器和请求映射等关键概念
+使用XML文件成功配置了一个简单的Spring MVC应用程序，能够处理请求和显示视图</t>
+  </si>
+  <si>
+    <t>在配置Spring AOP的过程中遇到了一些困难，特别是在配置切面和通知时遇到了一些错误。通过查阅文档、调试和仔细检查配置文件，成功解决了这些问题。
+在配置Spring MVC的视图解析器时遇到了一些错误。通过检查配置文件和调试，最终解决了这个问题。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对Spring AOP和Spring MVC有了全面的了解。我学会了如何配置和使用这些技术，以实现横切关注点的分离和构建基于Spring MVC的Web应用程序。在解决问题的过程中，我学会了查阅文档、调试代码和仔细检查配置文件的重要性。这些知识和经验对今后处理面向切面编程和构建基于Spring MVC的Web应用程序的开发任务将非常有价值。</t>
+  </si>
+  <si>
+    <t>学习 Jackson 库，了解其在 Java 中的 JSON 处理能力。
+学习 Spring Boot 框架，掌握其基本概念和用法。
+学习 YAML（YAML Ain't Markup Language），了解其语法和在 Spring Boot 中的配置使用。
+完成相关练习和实践，包括使用 Jackson 解析和生成 JSON 数据，使用 Spring Boot 创建简单的 Web 应用，并使用 YAML 进行配置。</t>
+  </si>
+  <si>
+    <t>学习了 Jackson 库，了解了其在 Java 中处理 JSON 数据的能力，并成功完成相关练习。
+学习了 Spring Boot 框架的基本概念和用法，包括创建 Spring Boot 应用、配置依赖和处理请求等，并完成了相应的练习。
+学习了 YAML 语法和在 Spring Boot 中的配置使用，包括配置数据源、日志和应用属性等，并成功完成相关练习。
+完成了相关练习和实践，包括使用 Jackson 解析和生成 JSON 数据，使用 Spring Boot 创建简单的 Web 应用，并使用 YAML 进行配置。</t>
+  </si>
+  <si>
+    <t>在使用 Jackson 进行 JSON 解析时，遇到了一些复杂数据结构的处理困难，但通过查阅文档和示例代码，最终成功解决了问题。
+在配置 Spring Boot 应用时，遇到了一些依赖冲突和版本兼容性的问题，但通过调整依赖版本和配置文件，成功解决了这些问题。</t>
+  </si>
+  <si>
+    <t>通过学习 Jackson、Spring Boot 和 YAML，我对 JSON 数据处理、构建 Web 应用和配置管理有了更深入的了解。这些技术在实际开发中具有广泛的应用，对于构建现代化的、可扩展的应用程序非常有帮助。
+在今天的学习中，我发现文档和示例代码是非常有价值的资源。它们帮助我理解了这些技术的基本概念和用法，并提供了解决问题的指导。同时，遇到问题时，查阅文档和搜索相关问题的解决方案也是很重要的。</t>
+  </si>
+  <si>
+    <t>学习Spring Boot配置文件的使用方法。
+学习Spring Boot与MyBatis的整合方式。</t>
+  </si>
+  <si>
+    <t>已完成学习Spring Boot配置文件的使用方法，并实践了一些常用配置，如数据库连接配置、日志配置等。
+已完成学习Spring Boot与MyBatis的整合方式，包括配置MyBatis依赖、创建Mapper接口和XML映射文件等。</t>
+  </si>
+  <si>
+    <t>在配置文件中遇到了一些语法错误，导致应用启动失败。经过查找和调试，发现是由于缺少必要的引号和逗号导致的。通过修复这些错误，成功解决了启动问题。
+在整合MyBatis过程中，遇到了数据库连接失败的问题。经过检查发现，数据库的连接配置有误，修改后成功连接数据库。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对Spring Boot的配置文件和MyBatis的整合有了更深入的了解。配置文件的正确编写对应用的启动非常重要，需要仔细检查语法和格式。整合MyBatis时，需要确保数据库连接配置正确，并创建正确的Mapper接口和XML映射文件。在工作中，遇到的问题都是可以通过仔细排查和调试解决的，这也提醒我在编码过程中要更加细致和注意细节。</t>
+  </si>
+  <si>
+    <t>学习 Spring Boot 异常处理机制。
+掌握 Spring Boot 定时任务的使用方法。
+开发一个简单的 Spring Boot Web 应用程序。</t>
+  </si>
+  <si>
+    <t>学习了 Spring Boot 异常处理机制，包括全局异常处理和局部异常处理。了解了如何使用 @ControllerAdvice 和 @ExceptionHandler 注解来处理异常，并实践了一些常见的异常处理场景。
+掌握了 Spring Boot 定时任务的使用方法。使用 @Scheduled 注解创建了一个简单的定时任务，并成功运行和测试了任务的调度和执行。
+完成了一个基本的 Spring Boot Web 应用程序的开发。创建了控制器，定义了路由，并实现了处理请求和返回响应的功能。</t>
+  </si>
+  <si>
+    <t>在异常处理方面，遇到了一些复杂的异常场景，需要进一步学习和实践来提高处理能力。特别是在处理多个异常类型时，需要更深入地了解异常处理的最佳实践。
+在定时任务的配置过程中，遇到了一些调度时间设置的困惑。需要进一步研究和实践，以了解更高级的调度配置选项和使用场景。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对 Spring Boot 异常处理、定时任务和 Web 开发有了更深入的了解。异常处理的学习让我认识到在应用程序中如何优雅地处理异常情况，提高了代码的可靠性和可维护性。定时任务的掌握使我能够在应用程序中实现定时执行的功能，提高了应用的灵活性和效率。Web 开发的实践让我熟悉了 Spring Boot 的 MVC 架构和请求-响应的处理流程。</t>
+  </si>
+  <si>
+    <t>学习 Redis 的基本概念和常用命令。
+探索 Spring Boot 和 Redis 的集成方式，并实践一些简单的操作。
+了解 Vue 的基本概念和语法。</t>
+  </si>
+  <si>
+    <t>学习了 Redis 的基本概念和常用命令，包括键值存储、数据类型和常见操作等。
+成功集成了 Spring Boot 和 Redis，实践了一些简单的操作，如设置键值对、获取键值对等。
+了解了 Vue 的基本概念和语法，包括组件、指令和数据绑定等。</t>
+  </si>
+  <si>
+    <t>在学习 Redis 过程中，遇到了一些命令的用法不熟悉的情况，需要进一步的练习和实践来加深理解。
+在集成 Spring Boot 和 Redis 的过程中，遇到了一些配置和依赖的问题，但通过查阅文档和示例代码解决了这些问题。
+在了解 Vue 的过程中，对一些概念和语法还不够熟悉，需要进一步的学习和实践来掌握。</t>
+  </si>
+  <si>
+    <t>学习 Vue 模板语法、常用指令、计算属性、侦听器和 Vue 生命周期钩子。
+实践使用模板元素的 ref 属性。</t>
+  </si>
+  <si>
+    <t>学习了 Vue 模板语法，包括插值表达式、指令和事件处理。
+熟悉了常用指令，如 v-bind、v-if、v-for 和 v-on。
+掌握了计算属性的使用方法，以及它们在动态计算数据时的优势。
+学习了侦听器的概念和用法，可以在数据变化时执行相应的操作。
+理解了 Vue 生命周期钩子函数的执行顺序和各个阶段的用途。
+实践了使用模板元素的 ref 属性，可以在代码中通过 ref 引用元素并进行操作。</t>
+  </si>
+  <si>
+    <t>在编写 Vue 代码时，遇到了按钮无法触发方法的问题。通过将按钮放在与 Vue 实例绑定的元素内解决了该问题。
+在使用侦听器时，初始尝试直接侦听对象的属性时遇到了问题，后来通过侦听对象的 getter 函数解决了该问题。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对 Vue 的模板语法、常用指令、计算属性、侦听器和生命周期钩子有了更深入的了解。掌握这些核心概念和技术，我能够更好地构建 Vue 应用程序并处理数据的动态变化。在工作中遇到的问题也提醒我要注意 Vue 的语法和用法，确保代码的正确性和可靠性。在接下来的工作中，我将继续巩固所学的知识，并尽可能应用到实际项目中，以提高自己的 Vue 开发能力。</t>
+  </si>
+  <si>
+    <t>1. 学习nodejs的基础知识和应用；
+2. 掌握vue cli的使用方法；
+3. 学习在nodejs中使用vue。</t>
+  </si>
+  <si>
+    <t>1. 学习了nodejs的基础知识和应用，包括模块化、文件操作、网络编程等；
+2. 掌握了vue cli的使用方法，包括创建项目、添加插件、运行项目等；
+3. 学习了在nodejs中使用vue的方法，包括使用vue-server-renderer渲染页面、使用vue-router进行路由管理等。</t>
+  </si>
+  <si>
+    <t>1. 在学习nodejs时，遇到了一些概念比较抽象的地方，需要反复查阅资料才能理解；
+2. 在使用vue-cli创建项目时，由于网络问题导致下载速度较慢，耗费了较多时间。</t>
+  </si>
+  <si>
+    <t>通过今天的学习，我对nodejs和vue cli有了更深入的了解，并且学会了在nodejs中使用vue。在以后的开发工作中，我可以更加灵活地运用这些技术，提高开发效率。同时，我也认识到自己在学习过程中还存在一些不足之处，需要继续努力提升自己的学习能力。</t>
+  </si>
+  <si>
+    <t>学习Vue组件与状态管理</t>
+  </si>
+  <si>
+    <t>今天我成功完成了学习Vue组件与状态管理的任务。我通过阅读文档、参考示例代码和完成练习，深入了解了Vue组件的概念和使用方法。我学会了如何创建和注册组件，以及如何在组件之间进行通信和共享状态。此外，我还学习了Vuex状态管理库的基本原理和用法</t>
+  </si>
+  <si>
+    <t>在学习过程中，我遇到了一些问题。其中一个问题是在组件通信方面的挑战。我发现在大型应用程序中，组件之间的通信可能变得复杂，特别是当组件层级嵌套较深时。我花了一些时间研究和实践，以找到最佳的组件通信方案。另一个问题是在使用Vuex时，我有时会感到困惑，特别是在处理异步操作和模块化状态时。我通过查阅文档和参考示例代码解决了这些问题。</t>
+  </si>
+  <si>
+    <t>通过学习Vue组件与状态管理，我对Vue框架的理解更加深入。我认识到组件化开发的优势，它可以提高代码的可维护性和重用性。状态管理的概念也让我意识到在应用程序中合理管理和共享状态的重要性。</t>
   </si>
   <si>
     <r>
-      <t>2020年</t>
+      <t>2023年__7__月__28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>__日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2023年</t>
     </r>
     <r>
       <rPr>
@@ -227,714 +456,59 @@
       </rPr>
       <t>日</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2020年__7__月__2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>__日</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习 JavaScript 的面向对象编程，包括 Object 对象、Function 对象、对象的创建模式、寄生组合继承模式、闭包和模块。
-2。学习 jQuery 的语法、DOM 与 jQuery 对象的转换以及基本选择器的使用。</t>
-  </si>
-  <si>
-    <t>1.学习MySQL的简单查询、LIMIT、分组、INNER JOIN、LEFT JOIN、RIGHT JOIN、UNION、UNION
-ALL、DISTINCT、子查询等操作。
-2.学习JDBC的增删改查操作。</t>
-  </si>
-  <si>
-    <t>1.已学习 MySQL 的简单查询、LIMIT、分组、INNER JOIN、LEFT JOIN、RIGHT JOIN、UNION、
-UNIONALL、DISTINCT、子查询等操作，并完成/两道练题。
-2.已学习JDBC的增删改查操作。</t>
-  </si>
-  <si>
-    <t>在学习MySQL 的查询语句和 JDBC 的操作过程中，没有遇到明显的问题，学习进展顺利。</t>
-  </si>
-  <si>
-    <t>通过字习MySQL的查询语句和JDBC的操作，我掌握了在数据库中进行数据查询和操作的基本技巧。字）
-了简单查询、LIMIT、分组、JOIN、UNION、DISTINCT、子查询等常用操作，这些知识对于处理实际的数
-据库操作非常有帮助。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__7__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__31__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__1__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习MyBatis的入门和配置
-掌握动态SQL的使用方法</t>
-  </si>
-  <si>
-    <t>学习了MyBatis的基本概念和原理，了解了它在Java项目中的作用和优势。
-完成了MyBatis的配置，包括设置数据库连接、配置Mapper文件和SqlSessionFactory等。
-学习了动态SQL的使用方法，包括if、choose、when、otherwise等标签的使用，以及使用foreach进行循环操作。
-实践了一些简单的动态SQL场景，如根据条件查询数据、动态拼接SQL语句等。</t>
-  </si>
-  <si>
-    <t>在配置MyBatis时遇到了一些问题，特别是在设置数据库连接方面。经过查阅文档和进行调试，最终成功解决了问题。
-在学习动态SQL时，有时候对于复杂的逻辑判断和循环操作，需要仔细思考和调试，以确保SQL语句的正确性。</t>
-  </si>
-  <si>
-    <t>通过今天的学习，我对MyBatis的入门和配置有了更深入的了解。它是一个强大的持久层框架，可以帮助简化数据库操作，并提供了灵活的动态SQL功能。
-动态SQL的使用可以根据不同的条件和场景生成不同的SQL语句，提高了查询和操作的灵活性和效率。
-在工作中，遇到问题时要善于查阅文档和寻求帮助，同时进行适当的调试和测试，以解决问题并提高自己的技能。</t>
-  </si>
-  <si>
-    <t>学习MyBatis的多表查询功能
-掌握在MyBatis中进行多表查询的方法和技巧</t>
-  </si>
-  <si>
-    <t>学习了MyBatis中进行多表查询的不同方式，包括使用嵌套查询、联合查询和关联映射等方法。
-实践了多个示例场景，如查询关联表的数据、使用嵌套查询获取嵌套对象等。
-熟悉了MyBatis中的resultMap配置，用于定义多表查询的结果映射关系，以便方便地获取关联对象的数据。</t>
-  </si>
-  <si>
-    <t>在进行多表查询时，遇到了一些复杂的关联关系和查询逻辑。需要仔细分析和设计SQL语句，以确保查询结果的准确性和性能。
-在配置resultMap时，有时候需要处理多个表之间的关联关系，需要注意配置的正确性和一致性。</t>
-  </si>
-  <si>
-    <t>通过今天的学习，我对MyBatis的多表查询有了更深入的了解。多表查询是在实际项目中经常遇到的需求，掌握了相关技巧和方法可以提高数据查询的效率和灵活性。
-在进行多表查询时，需要仔细分析和设计SQL语句，充分理解表之间的关联关系，并使用合适的查询方式和结果映射配置。
-MyBatis提供了丰富的多表查询功能和灵活的结果映射配置，可以满足不同场景的需求。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__2__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__3__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习MyBatis的TypeHandler、PageHelper以及Spring的IOC和属性注入
-理解TypeHandler的作用和使用方法，掌握PageHelper在分页查询中的应用
-学习Spring的IOC容器和属性注入的概念和用法</t>
-  </si>
-  <si>
-    <t>学习了MyBatis的TypeHandler，了解了它在处理数据库字段和Java对象之间的类型转换中的作用。掌握了如何自定义TypeHandler以处理特定类型的转换需求。
-熟悉了PageHelper插件的使用，它可以方便地实现分页查询功能，提供了简单的配置和使用方式。
-学习了Spring的IOC容器，了解了它的概念和作用。掌握了通过XML配置和注解方式进行IOC容器的配置和Bean的管理。
-理解了属性注入的概念和用法，包括构造器注入和Setter方法注入。通过配置文件和注解，实现了属性的自动注入。</t>
-  </si>
-  <si>
-    <t>在学习TypeHandler时，遇到了一些复杂类型的转换问题，需要仔细阅读文档和进行实验来解决。
-在配置Spring的IOC容器时，有时候需要注意Bean的命名和作用域等配置，以确保容器的正确运行。</t>
-  </si>
-  <si>
-    <t>通过今天的学习，我对MyBatis的TypeHandler和PageHelper有了更深入的了解。TypeHandler可以帮助我们处理数据库字段和Java对象之间的类型转换，而PageHelper则提供了方便的分页查询功能。
-Spring的IOC容器和属性注入是实现依赖注入的重要工具，可以帮助我们解耦和管理对象之间的依赖关系。
-在实际工作中，合理使用TypeHandler、PageHelper和Spring的IOC容器可以提高开发效率和代码质量。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__4__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习和实践Spring AOP和Spring MVC
-理解Spring AOP的概念和用途
-实现日志记录功能使用AOP
-配置和使用Spring MVC的关键组件
-完成Spring MVC应用程序的配置和请求处理</t>
-  </si>
-  <si>
-    <t>学习了Spring AOP的原理和目的，了解了如何将横切关注点从核心业务逻辑中分离出来
-使用AOP实现了日志记录功能，通过XML配置文件配置了切面和通知
-学习了Spring MVC的控制器、视图解析器和请求映射等关键概念
-使用XML文件成功配置了一个简单的Spring MVC应用程序，能够处理请求和显示视图</t>
-  </si>
-  <si>
-    <t>在配置Spring AOP的过程中遇到了一些困难，特别是在配置切面和通知时遇到了一些错误。通过查阅文档、调试和仔细检查配置文件，成功解决了这些问题。
-在配置Spring MVC的视图解析器时遇到了一些错误。通过检查配置文件和调试，最终解决了这个问题。</t>
-  </si>
-  <si>
-    <t>通过今天的学习和实践，我对Spring AOP和Spring MVC有了全面的了解。我学会了如何配置和使用这些技术，以实现横切关注点的分离和构建基于Spring MVC的Web应用程序。在解决问题的过程中，我学会了查阅文档、调试代码和仔细检查配置文件的重要性。这些知识和经验对今后处理面向切面编程和构建基于Spring MVC的Web应用程序的开发任务将非常有价值。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__5__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习 Jackson 库，了解其在 Java 中的 JSON 处理能力。
-学习 Spring Boot 框架，掌握其基本概念和用法。
-学习 YAML（YAML Ain't Markup Language），了解其语法和在 Spring Boot 中的配置使用。
-完成相关练习和实践，包括使用 Jackson 解析和生成 JSON 数据，使用 Spring Boot 创建简单的 Web 应用，并使用 YAML 进行配置。</t>
-  </si>
-  <si>
-    <t>学习了 Jackson 库，了解了其在 Java 中处理 JSON 数据的能力，并成功完成相关练习。
-学习了 Spring Boot 框架的基本概念和用法，包括创建 Spring Boot 应用、配置依赖和处理请求等，并完成了相应的练习。
-学习了 YAML 语法和在 Spring Boot 中的配置使用，包括配置数据源、日志和应用属性等，并成功完成相关练习。
-完成了相关练习和实践，包括使用 Jackson 解析和生成 JSON 数据，使用 Spring Boot 创建简单的 Web 应用，并使用 YAML 进行配置。</t>
-  </si>
-  <si>
-    <t>在使用 Jackson 进行 JSON 解析时，遇到了一些复杂数据结构的处理困难，但通过查阅文档和示例代码，最终成功解决了问题。
-在配置 Spring Boot 应用时，遇到了一些依赖冲突和版本兼容性的问题，但通过调整依赖版本和配置文件，成功解决了这些问题。</t>
-  </si>
-  <si>
-    <t>通过学习 Jackson、Spring Boot 和 YAML，我对 JSON 数据处理、构建 Web 应用和配置管理有了更深入的了解。这些技术在实际开发中具有广泛的应用，对于构建现代化的、可扩展的应用程序非常有帮助。
-在今天的学习中，我发现文档和示例代码是非常有价值的资源。它们帮助我理解了这些技术的基本概念和用法，并提供了解决问题的指导。同时，遇到问题时，查阅文档和搜索相关问题的解决方案也是很重要的。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__7__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习Spring Boot配置文件的使用方法。
-学习Spring Boot与MyBatis的整合方式。</t>
-  </si>
-  <si>
-    <t>已完成学习Spring Boot配置文件的使用方法，并实践了一些常用配置，如数据库连接配置、日志配置等。
-已完成学习Spring Boot与MyBatis的整合方式，包括配置MyBatis依赖、创建Mapper接口和XML映射文件等。</t>
-  </si>
-  <si>
-    <t>在配置文件中遇到了一些语法错误，导致应用启动失败。经过查找和调试，发现是由于缺少必要的引号和逗号导致的。通过修复这些错误，成功解决了启动问题。
-在整合MyBatis过程中，遇到了数据库连接失败的问题。经过检查发现，数据库的连接配置有误，修改后成功连接数据库。</t>
-  </si>
-  <si>
-    <t>通过今天的学习和实践，我对Spring Boot的配置文件和MyBatis的整合有了更深入的了解。配置文件的正确编写对应用的启动非常重要，需要仔细检查语法和格式。整合MyBatis时，需要确保数据库连接配置正确，并创建正确的Mapper接口和XML映射文件。在工作中，遇到的问题都是可以通过仔细排查和调试解决的，这也提醒我在编码过程中要更加细致和注意细节。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习 Spring Boot 异常处理机制。
-掌握 Spring Boot 定时任务的使用方法。
-开发一个简单的 Spring Boot Web 应用程序。</t>
-  </si>
-  <si>
-    <t>学习了 Spring Boot 异常处理机制，包括全局异常处理和局部异常处理。了解了如何使用 @ControllerAdvice 和 @ExceptionHandler 注解来处理异常，并实践了一些常见的异常处理场景。
-掌握了 Spring Boot 定时任务的使用方法。使用 @Scheduled 注解创建了一个简单的定时任务，并成功运行和测试了任务的调度和执行。
-完成了一个基本的 Spring Boot Web 应用程序的开发。创建了控制器，定义了路由，并实现了处理请求和返回响应的功能。</t>
-  </si>
-  <si>
-    <t>在异常处理方面，遇到了一些复杂的异常场景，需要进一步学习和实践来提高处理能力。特别是在处理多个异常类型时，需要更深入地了解异常处理的最佳实践。
-在定时任务的配置过程中，遇到了一些调度时间设置的困惑。需要进一步研究和实践，以了解更高级的调度配置选项和使用场景。</t>
-  </si>
-  <si>
-    <t>通过今天的学习和实践，我对 Spring Boot 异常处理、定时任务和 Web 开发有了更深入的了解。异常处理的学习让我认识到在应用程序中如何优雅地处理异常情况，提高了代码的可靠性和可维护性。定时任务的掌握使我能够在应用程序中实现定时执行的功能，提高了应用的灵活性和效率。Web 开发的实践让我熟悉了 Spring Boot 的 MVC 架构和请求-响应的处理流程。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__9__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习 Redis 的基本概念和常用命令。
-探索 Spring Boot 和 Redis 的集成方式，并实践一些简单的操作。
-了解 Vue 的基本概念和语法。</t>
-  </si>
-  <si>
-    <t>学习了 Redis 的基本概念和常用命令，包括键值存储、数据类型和常见操作等。
-成功集成了 Spring Boot 和 Redis，实践了一些简单的操作，如设置键值对、获取键值对等。
-了解了 Vue 的基本概念和语法，包括组件、指令和数据绑定等。</t>
-  </si>
-  <si>
-    <t>在学习 Redis 过程中，遇到了一些命令的用法不熟悉的情况，需要进一步的练习和实践来加深理解。
-在集成 Spring Boot 和 Redis 的过程中，遇到了一些配置和依赖的问题，但通过查阅文档和示例代码解决了这些问题。
-在了解 Vue 的过程中，对一些概念和语法还不够熟悉，需要进一步的学习和实践来掌握。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__10__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习 Vue 模板语法、常用指令、计算属性、侦听器和 Vue 生命周期钩子。
-实践使用模板元素的 ref 属性。</t>
-  </si>
-  <si>
-    <t>学习了 Vue 模板语法，包括插值表达式、指令和事件处理。
-熟悉了常用指令，如 v-bind、v-if、v-for 和 v-on。
-掌握了计算属性的使用方法，以及它们在动态计算数据时的优势。
-学习了侦听器的概念和用法，可以在数据变化时执行相应的操作。
-理解了 Vue 生命周期钩子函数的执行顺序和各个阶段的用途。
-实践了使用模板元素的 ref 属性，可以在代码中通过 ref 引用元素并进行操作。</t>
-  </si>
-  <si>
-    <t>在编写 Vue 代码时，遇到了按钮无法触发方法的问题。通过将按钮放在与 Vue 实例绑定的元素内解决了该问题。
-在使用侦听器时，初始尝试直接侦听对象的属性时遇到了问题，后来通过侦听对象的 getter 函数解决了该问题。</t>
-  </si>
-  <si>
-    <t>通过今天的学习和实践，我对 Vue 的模板语法、常用指令、计算属性、侦听器和生命周期钩子有了更深入的了解。掌握这些核心概念和技术，我能够更好地构建 Vue 应用程序并处理数据的动态变化。在工作中遇到的问题也提醒我要注意 Vue 的语法和用法，确保代码的正确性和可靠性。在接下来的工作中，我将继续巩固所学的知识，并尽可能应用到实际项目中，以提高自己的 Vue 开发能力。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__11__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>1. 学习nodejs的基础知识和应用；
-2. 掌握vue cli的使用方法；
-3. 学习在nodejs中使用vue。</t>
-  </si>
-  <si>
-    <t>1. 学习了nodejs的基础知识和应用，包括模块化、文件操作、网络编程等；
-2. 掌握了vue cli的使用方法，包括创建项目、添加插件、运行项目等；
-3. 学习了在nodejs中使用vue的方法，包括使用vue-server-renderer渲染页面、使用vue-router进行路由管理等。</t>
-  </si>
-  <si>
-    <t>1. 在学习nodejs时，遇到了一些概念比较抽象的地方，需要反复查阅资料才能理解；
-2. 在使用vue-cli创建项目时，由于网络问题导致下载速度较慢，耗费了较多时间。</t>
-  </si>
-  <si>
-    <t>通过今天的学习，我对nodejs和vue cli有了更深入的了解，并且学会了在nodejs中使用vue。在以后的开发工作中，我可以更加灵活地运用这些技术，提高开发效率。同时，我也认识到自己在学习过程中还存在一些不足之处，需要继续努力提升自己的学习能力。</t>
-  </si>
-  <si>
-    <r>
-      <t>2020年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__8__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>__12__</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>学习Vue组件与状态管理</t>
-  </si>
-  <si>
-    <t>今天我成功完成了学习Vue组件与状态管理的任务。我通过阅读文档、参考示例代码和完成练习，深入了解了Vue组件的概念和使用方法。我学会了如何创建和注册组件，以及如何在组件之间进行通信和共享状态。此外，我还学习了Vuex状态管理库的基本原理和用法</t>
-  </si>
-  <si>
-    <t>在学习过程中，我遇到了一些问题。其中一个问题是在组件通信方面的挑战。我发现在大型应用程序中，组件之间的通信可能变得复杂，特别是当组件层级嵌套较深时。我花了一些时间研究和实践，以找到最佳的组件通信方案。另一个问题是在使用Vuex时，我有时会感到困惑，特别是在处理异步操作和模块化状态时。我通过查阅文档和参考示例代码解决了这些问题。</t>
-  </si>
-  <si>
-    <t>通过学习Vue组件与状态管理，我对Vue框架的理解更加深入。我认识到组件化开发的优势，它可以提高代码的可维护性和重用性。状态管理的概念也让我意识到在应用程序中合理管理和共享状态的重要性。</t>
+  </si>
+  <si>
+    <t>2023年__7__月__31__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__1__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__3__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__4__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__5__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__7__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__8__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__9__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__10__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__11__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__12__日</t>
+  </si>
+  <si>
+    <t>2023年____月____日</t>
+  </si>
+  <si>
+    <t>1. 已经学习并掌握了element ui的基本使用方法，能够熟练使用常见的组件。
+2. 学习了vue与后端相连的方法，包括axios的使用以及如何发送请求和接收响应。
+3. 已经完成了一个前后端分离的小项目，能够实现前端与后端的数据交互和展示。</t>
+  </si>
+  <si>
+    <t>1. 在学习element ui时，遇到了一些组件的使用问题，需要查阅文档和网上资料来解决。
+2. 在学习vue与后端相连时，遇到了一些跨域和请求格式的问题，需要仔细调试和排查。</t>
+  </si>
+  <si>
+    <t>通过这次工作，我深刻认识到了前后端分离的优势和必要性，也学会了如何使用element ui和vue来实现前端页面的开发和与后端的数据交互。同时，也发现了自己在技术方面的不足之处，需要更加努力学习和提高自己的技能水平。</t>
+  </si>
+  <si>
+    <t>1. 学习并掌握element ui的使用方法
+2. 学习vue与后端交互的方法
+3. 完成一个前后端分离的小项目</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +932,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1378,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1419,7 +993,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1439,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1447,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1455,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1463,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1471,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1486,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8D18EF-53DD-48F0-82F8-5250E322B3C2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1507,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1515,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1523,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1531,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1539,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1129,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1575,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1583,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1591,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1599,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1607,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160B560C-B6FC-41E7-9F26-44D82CC10A43}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1643,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1651,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1659,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1667,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1675,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1690,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CFD151-6F09-44B0-B4BF-4427AC4C1C5C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1711,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1719,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1727,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1735,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1743,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1758,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9E9A5-F70B-44E9-BA38-C6CFF49D02A9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1779,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1787,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1795,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1803,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1811,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1826,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726288C3-A4D8-4797-9273-942E15BC9E73}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1847,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1855,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1863,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1871,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1879,7 +1453,75 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072FAB6-B1B2-41CB-921B-1FC67A6486FB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1552,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1933,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A195C3-EEFF-4367-991C-221007BA42BE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B3:B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1954,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1962,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -1970,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -1978,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -1986,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2003,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F526CFE2-4FE2-4DF9-93ED-5A77E9383A42}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B3:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2024,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -2032,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -2040,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -2048,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -2056,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +1716,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2094,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -2102,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -2110,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -2118,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -2126,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -2170,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -2178,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -2186,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -2194,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -2238,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -2246,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -2254,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -2262,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2278,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152E0A1C-32E6-495C-84CD-226B48F68124}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2299,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -2307,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -2315,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -2323,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -2331,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +1989,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2367,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -2375,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="113.25" customHeight="1">
@@ -2383,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="113.25" customHeight="1">
@@ -2391,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="113.25" customHeight="1">
@@ -2399,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0EB744-963D-4D4D-82BF-02A4BD6CD814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B3C52-3DD8-4594-A2C9-A049644B187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="8.11" sheetId="36" r:id="rId15"/>
     <sheet name="8.12" sheetId="37" r:id="rId16"/>
     <sheet name="8.14" sheetId="38" r:id="rId17"/>
+    <sheet name="模板 (2)" sheetId="39" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t>工作日报表</t>
   </si>
@@ -509,6 +510,27 @@
     <t>1. 学习并掌握element ui的使用方法
 2. 学习vue与后端交互的方法
 3. 完成一个前后端分离的小项目</t>
+  </si>
+  <si>
+    <t>2023年__8__月__14__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__15__日</t>
+  </si>
+  <si>
+    <t>学习Vue图片上传功能
+学习Git版本控制工具</t>
+  </si>
+  <si>
+    <t>成功学习了Vue图片上传功能，并实现了基本的图片上传功能，能够将用户选择的图片上传到服务器。
+学习了Git的基本用法，包括初始化仓库、提交代码、创建分支、合并分支等操作，并成功在本地和远程仓库中进行了代码提交和同步。</t>
+  </si>
+  <si>
+    <t>在Vue图片上传功能的学习过程中，遇到了一些困难。特别是在处理图片上传的异步操作和进度显示方面，需要进一步深入理解和实践。
+在使用Git时，有时候会遇到冲突的情况，需要更好地掌握解决冲突的方法和策略。</t>
+  </si>
+  <si>
+    <t>通过今天的学习和实践，我对Vue图片上传功能和Git版本控制工具有了初步的了解和掌握。在实践中遇到的问题提醒我需要更深入地学习相关知识，并在实际项目中多加练习，以提高自己的技能水平。同时，我也意识到团队协作中使用Git进行版本控制的重要性，这将有助于项目的管理和代码的协同开发。</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5072FAB6-B1B2-41CB-921B-1FC67A6486FB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1489,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="113.25" customHeight="1">
@@ -1522,6 +1544,74 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB0F2C7-C9D7-42C5-BB92-53E6CF4F7B54}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/docs/202111040656鲁卢.xlsx
+++ b/docs/202111040656鲁卢.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\996ForCredit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B3C52-3DD8-4594-A2C9-A049644B187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA1BF24-2CFC-423A-9930-612D1ED1CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="17" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="7" r:id="rId1"/>
@@ -30,14 +30,29 @@
     <sheet name="8.11" sheetId="36" r:id="rId15"/>
     <sheet name="8.12" sheetId="37" r:id="rId16"/>
     <sheet name="8.14" sheetId="38" r:id="rId17"/>
-    <sheet name="模板 (2)" sheetId="39" r:id="rId18"/>
+    <sheet name="8.15" sheetId="39" r:id="rId18"/>
+    <sheet name="8.16" sheetId="40" r:id="rId19"/>
+    <sheet name="8.17" sheetId="41" r:id="rId20"/>
+    <sheet name="8.18" sheetId="42" r:id="rId21"/>
+    <sheet name="8.19" sheetId="43" r:id="rId22"/>
+    <sheet name="8.21" sheetId="44" r:id="rId23"/>
+    <sheet name="8.22" sheetId="45" r:id="rId24"/>
+    <sheet name="8.23" sheetId="47" r:id="rId25"/>
+    <sheet name="8.24" sheetId="46" r:id="rId26"/>
+    <sheet name="8.25" sheetId="48" r:id="rId27"/>
+    <sheet name="8.26" sheetId="49" r:id="rId28"/>
+    <sheet name="8.28" sheetId="50" r:id="rId29"/>
+    <sheet name="8.29" sheetId="51" r:id="rId30"/>
+    <sheet name="8.30" sheetId="52" r:id="rId31"/>
+    <sheet name="8.31" sheetId="53" r:id="rId32"/>
+    <sheet name="8.26 (6)" sheetId="54" r:id="rId33"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="162">
   <si>
     <t>工作日报表</t>
   </si>
@@ -531,6 +546,295 @@
   </si>
   <si>
     <t>通过今天的学习和实践，我对Vue图片上传功能和Git版本控制工具有了初步的了解和掌握。在实践中遇到的问题提醒我需要更深入地学习相关知识，并在实际项目中多加练习，以提高自己的技能水平。同时，我也意识到团队协作中使用Git进行版本控制的重要性，这将有助于项目的管理和代码的协同开发。</t>
+  </si>
+  <si>
+    <t>通过编写PRDv1.0文档，我对系统的需求有了更清晰的了解，并能够更好地规划和安排后续的开发工作。在整个过程中，我意识到需求明确和细化的重要性，以及与团队合作和沟通的必要性。在接下来的工作中，我将进一步与相关团队协作，解决技术难题，并确保系统的功能和接口设计符合需求。</t>
+  </si>
+  <si>
+    <t>在撰写PRDv1.0文档的过程中，遇到了一些需求模糊的情况，需要与相关团队进一步沟通和澄清。
+针对某些功能和接口的设计，遇到了一些技术难题，需要进行更深入的研究和讨论。</t>
+  </si>
+  <si>
+    <t>PRDv1.0文档已完成，并进行了详细的修订和补充。
+系统需求已经确定，并对各项功能和接口进行了详细的细化和说明。</t>
+  </si>
+  <si>
+    <t>完善并撰写PRDv1.0文档。
+确定系统需求，并细化各项功能和接口</t>
+  </si>
+  <si>
+    <t>2023年__8__月__16__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__17__日</t>
+  </si>
+  <si>
+    <t>使用 Vue CLI 搭建超市商品管理系统的布局。
+设计并实现页面布局，包括侧边栏、顶部导航栏和主要内容区域。
+集成 Element-Plus 组件库，使用其中的组件构建页面元素。
+实现基本的路由功能，确保页面之间的跳转和导航正常工作。</t>
+  </si>
+  <si>
+    <t>成功使用 Vue CLI 搭建了超市商品管理系统的布局。
+设计并实现了页面布局，包括侧边栏、顶部导航栏和主要内容区域。
+集成了 Element-Plus 组件库，并使用其中的组件构建了页面元素。
+实现了基本的路由功能，确保页面之间的跳转和导航正常工作。</t>
+  </si>
+  <si>
+    <t>在使用 Element-Plus 组件库时遇到了组件解析失败的问题。通过检查依赖和配置，发现缺少了 Element-Plus 的正确导入和注册，以及 Vue.js 编译器的配置问题。通过安装 Element-Plus 并正确配置编译器选项，成功解决了组件解析失败的问题。</t>
+  </si>
+  <si>
+    <t>通过这次工作，我学到了如何使用 Vue CLI 搭建项目的基本布局，并集成了 Element-Plus 组件库来构建页面元素。遇到的组件解析问题也提醒了我在使用第三方组件库时需要正确导入和注册组件，并配置编译器选项以确保组件解析正常。下一步，我计划继续完善超市商品管理系统的功能，包括商品列表展示、添加和编辑商品等功能，并进行样式美化和性能优化。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__18__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__19__日</t>
+  </si>
+  <si>
+    <t>编写登录界面的前端代码。
+实现验证码功能。
+处理前端请求。</t>
+  </si>
+  <si>
+    <t>登录界面的前端代码已完成，并进行了测试和调试。
+验证码功能已实现，用户可以获取和输入验证码。
+前端请求的处理已完成，包括验证用户输入的用户名、密码和验证码的正确性。</t>
+  </si>
+  <si>
+    <t>在实现验证码功能时，遇到了一些技术难题，包括生成和验证验证码的逻辑。经过调研和尝试，成功解决了这些问题。
+在处理前端请求时，遇到了一些边界情况和异常处理的问题。通过仔细检查代码和进行测试，找到并修复了这些问题。</t>
+  </si>
+  <si>
+    <t>通过完成这些任务，我对前端开发和验证码功能有了更深入的理解。在处理前端请求时，我学到了如何处理异常情况和边界条件，以提高系统的稳定性和安全性。我还意识到在开发过程中，及时的调研和问题解决能够帮助我克服技术难题。</t>
+  </si>
+  <si>
+    <t>调试前端项目，解决页面显示和交互问题。
+调试后端项目，修复接口返回数据错误和逻辑问题。</t>
+  </si>
+  <si>
+    <t>前端项目调试已完成，解决了页面显示不正确和交互问题。页面现在能够正确地展示数据，并且用户能够与页面进行交互。
+后端项目调试已完成，修复了接口返回数据错误和逻辑问题。现在接口返回的数据符合预期，并且业务逻辑得到了修复。</t>
+  </si>
+  <si>
+    <t>在调试前端项目时，遇到了一些样式不正确和交互问题。通过检查代码和使用浏览器开发者工具，找到并修复了这些问题。
+在调试后端项目时，发现了一些接口返回数据错误和业务逻辑问题。通过仔细分析代码和进行单元测试，找到并修复了这些问题。</t>
+  </si>
+  <si>
+    <t>通过调试前端和后端项目，我对整个系统的运行流程和交互方式有了更深入的了解。我学到了如何使用开发者工具来调试前端代码，并且加强了对后端接口和业务逻辑的理解。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__22__日</t>
+  </si>
+  <si>
+    <t>前端布局设计：设计并实现网页的布局结构。
+前端API开发：编写前端与后端通信的API接口。</t>
+  </si>
+  <si>
+    <t>前端布局设计：完成了网页的布局设计，包括头部导航栏、侧边栏和主要内容区域的布局。
+前端API开发：实现了与后端通信的API接口，包括发送请求、接收响应并处理数据。</t>
+  </si>
+  <si>
+    <t>在前端布局设计过程中，遇到了一些响应式布局的挑战，需要在不同设备上保持页面的良好显示效果。通过使用CSS媒体查询和Flex布局等技术，成功解决了这个问题。
+在前端API开发中，遇到了一些跨域请求的问题。通过在后端API中添加CORS（跨源资源共享）头部信息，解决了跨域请求的限制。</t>
+  </si>
+  <si>
+    <t>通过今天的工作，我成功完成了前端布局设计和前端API开发的任务。在布局设计过程中，我学到了如何使用响应式布局技术来适应不同设备的显示需求。在API开发中，我进一步熟悉了前后端通信的流程，并解决了一些常见的问题。在未来的工作中，我将继续深入学习前端技术，提升自己在布局设计和API开发方面的能力。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__21__日</t>
+  </si>
+  <si>
+    <t>权限管理：设计并实现用户权限管理功能。</t>
+  </si>
+  <si>
+    <t>权限管理：完成了用户权限管理功能的设计和实现。
+实现了用户登录和注册功能，包括用户身份验证和访问令牌生成。
+设计并实现了角色管理功能，包括创建、编辑和删除角色。
+实现了权限管理功能，包括为角色分配权限和检查用户权限的功能。</t>
+  </si>
+  <si>
+    <t>在权限管理功能的设计过程中，遇到了权限粒度和细化的问题。需要确保权限的划分合理且具有可扩展性，以适应未来的需求变化。通过与团队成员的讨论和参考行业最佳实践，解决了这个问题。</t>
+  </si>
+  <si>
+    <t>通过今天的工作，我成功完成了权限管理功能的设计和实现。在这个过程中，我深入了解了用户身份验证、访问令牌生成和权限划分的重要性。我学到了如何设计灵活且可扩展的权限管理系统，并与团队成员紧密合作，以确保系统的安全性和稳定性。在未来的工作中，我将继续加强对权限管理领域的学习，并不断改进和优化我们的权限管理系统。</t>
+  </si>
+  <si>
+    <t>在某些边界情况下，部分操作可能出现异常或错误。需要进一步调试和修复这些问题。
+部分接口的性能还有待优化，需要进一步分析和改进以提高响应速度。
+部分接口的输入验证还不够严格，需要增加更多的验证逻辑，防止恶意输入和数据错误。</t>
+  </si>
+  <si>
+    <t>成功完成后端的CRUD功能开发，包括创建、读取、更新和删除操作。
+进行了功能测试，确保各项操作符合预期并且没有明显的错误。
+提交了代码，并进行了代码审查，以确保代码质量和最佳实践。</t>
+  </si>
+  <si>
+    <t>完成后端的CRUD功能开发
+验收并测试已完成的功能
+提交代码并进行代码审查</t>
+  </si>
+  <si>
+    <t>在这次后端CRUD功能开发中，我们取得了一定的进展。我们成功实现了基本的创建、读取、更新和删除操作，并进行了功能测试和代码审查。然而，我们也发现了一些问题，包括异常处理、性能和输入验证等方面的改进空间。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__24__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__23__日</t>
+  </si>
+  <si>
+    <t>解决前后端API问题，确保前端能够正确调用后端的API接口。
+验收并测试已解决的API问题。
+提交代码并进行代码审查。</t>
+  </si>
+  <si>
+    <t>成功解决了前后端API问题，确保前端能够正确调用后端的API接口，并获得了正确的响应数据。
+进行了API测试，验证了各项API的功能和正确性。
+提交了代码，并进行了代码审查，以确保代码质量和最佳实践。</t>
+  </si>
+  <si>
+    <t>在某些特定情况下，部分API可能存在潜在的性能问题或错误。需要进一步跟踪和调试这些问题，并进行优化和修复。
+部分API的返回数据结构可能需要进行调整，以便更好地满足前端的需求和展示要求。
+部分API的输入验证还不够严格，需要增加更多的验证逻辑，防止恶意输入和数据错误。</t>
+  </si>
+  <si>
+    <t>在解决前后端API问题的过程中，我们取得了一定的进展。我们成功解决了前端调用后端API的问题，并进行了测试和代码审查。然而，我们也发现了一些问题，包括性能、数据结构和输入验证等方面的改进空间。</t>
+  </si>
+  <si>
+    <t>''''''''''''''''''''''''''</t>
+  </si>
+  <si>
+    <t>''''''''</t>
+  </si>
+  <si>
+    <t>2023年__8__月__25__日</t>
+  </si>
+  <si>
+    <t>实现前端数据表格功能
+处理任务安排和完成情况的数据
+处理遇到的问题并寻找解决方案
+总结和思考工作中的经验和教训</t>
+  </si>
+  <si>
+    <t>成功实现了前端数据表格功能，包括表格展示、选择行、编辑单元格等功能。
+完成了与任务安排和完成情况相关的数据处理，包括获取数据、展示数据、保存数据等操作。
+解决了一些遇到的问题，如处理可能为 undefined 的对象属性、初始化 editValue 中的值等。
+进行了测试和调试，确保功能的正常运行。</t>
+  </si>
+  <si>
+    <t>在访问对象属性时出现了 "Object is possibly 'undefined'" 错误。通过使用可选链操作符或条件语句来处理可能为 undefined 的情况，解决了这个问题。
+在处理编辑值时，由于 editValue 是一个 Map 对象，需要在 startEdit 方法中初始化 editValue 中的值，以确保正确访问和修改数据。</t>
+  </si>
+  <si>
+    <t>学到了如何在前端实现数据表格功能，并通过 Vue.js 和 Element UI 库进行开发。
+深入理解了可选链操作符和条件语句在处理可能为 undefined 的情况时的作用和用法。
+通过解决问题和调试过程，提高了调试和排错能力。
+在处理数据时，对数据结构的选择和初始化要仔细考虑，以确保数据的正确访问和修改。</t>
+  </si>
+  <si>
+    <t>开发前端可编辑表格功能。
+测试并确保功能的正常运行。
+完成任务文档和代码注释。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__26__日</t>
+  </si>
+  <si>
+    <t>成功开发了前端可编辑表格功能，包括添加、编辑和删除行、列的功能。
+进行了全面的功能测试，确保表格在不同浏览器和设备上的兼容性。
+编写了任务文档，包括功能说明、使用方法和代码结构等。
+添加了适当的代码注释，提高代码的可读性和可维护性。</t>
+  </si>
+  <si>
+    <t>在开发过程中，遇到了一些样式兼容性问题，需要进行调试和修复。
+部分浏览器对某些表格操作的支持不一致，需要通过添加特定的兼容性代码来解决。</t>
+  </si>
+  <si>
+    <t>通过完成这个前端可编辑表格的任务，我深入了解了表格组件的实现原理和相关的前端技术。在开发过程中，我不仅解决了功能需求，还注重了代码的可读性和可维护性。遇到的一些问题也让我学会了更好地处理兼容性和调试工作。在未来的项目中，我会更加注重兼容性和测试，以确保功能的稳定性和用户体验。</t>
+  </si>
+  <si>
+    <t>开发前端可编辑表格的增删改查功能。
+测试并确保功能的正常运行。
+完成任务文档和代码注释。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__28__日</t>
+  </si>
+  <si>
+    <t>成功开发了前端可编辑表格的增删改查功能，包括添加、编辑、删除和查询行、列的功能。
+进行了全面的功能测试，确保表格在不同浏览器和设备上的兼容性，并验证了增删改查功能的正确性。
+编写了任务文档，包括功能说明、使用方法和代码结构等。
+添加了适当的代码注释，提高代码的可读性和可维护性。</t>
+  </si>
+  <si>
+    <t>在开发过程中，遇到了一些数据同步的问题，需要确保前端与后端的数据一致性。
+部分浏览器对某些表格操作的支持不一致，需要通过添加特定的兼容性代码来解决。</t>
+  </si>
+  <si>
+    <t>通过完成这个前端可编辑表格的增删改查功能，我提升了对表格操作和数据处理的理解和能力。在开发过程中，我注重了功能的完整性和正确性，并对代码进行了适当的优化和注释。遇到的一些问题也让我学会了更好地处理数据同步和兼容性问题。在未来的项目中，我会更加注重数据的一致性和兼容性测试，以确保功能的稳定性和用户体验。</t>
+  </si>
+  <si>
+    <t>完善前端表格功能，包括添加自动聚焦功能和其他必要的交互特性。
+解决前端表格中遇到的问题，如数据展示不准确、编辑状态切换等。
+总结与思考前端表格的开发过程，提出改进和优化的建议。</t>
+  </si>
+  <si>
+    <t>完成了前端表格的自动聚焦功能，现在点击按钮后对应的输入框能够自动获取焦点。
+解决了前端表格中的一些问题，包括数据展示不准确的问题和编辑状态切换时的逻辑错误。
+通过测试和调试，确保前端表格功能的正常运行。</t>
+  </si>
+  <si>
+    <t>在实现自动聚焦功能时，需要使用ref引用来操作DOM元素，但在初始尝试时出现了一些问题。经过查阅文档和调试，最终成功解决了问题。
+在处理编辑状态切换时，遇到了一些逻辑错误导致编辑状态无法正确切换的问题。通过仔细检查代码和调试，找到了问题所在并进行了修复。</t>
+  </si>
+  <si>
+    <t>完善前端表格功能是一个比较繁琐的任务，需要考虑到各种交互细节和边界情况。通过这次工作，我更加熟悉了Vue的ref引用和DOM操作的使用，也加深了对Vue组件生命周期和响应式数据的理解。
+在开发过程中，及时进行测试和调试是非常重要的。通过不断地测试和调试，我能够及早发现问题并进行修复，提高了代码的质量和稳定性。
+在以后的开发中，我会更加注重代码的可维护性和可扩展性，尽量避免出现逻辑错误和不必要的复杂性。同时，我也会积极学习和尝试新的技术和工具，以提高自己的开发效率和能力。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__29__日</t>
+  </si>
+  <si>
+    <t>2023年__8__月__30__日</t>
+  </si>
+  <si>
+    <t>将前端界面组件化
+创建Vue组件并将现有代码移植到组件中
+测试组件的功能和交互</t>
+  </si>
+  <si>
+    <t>在移植代码时，遇到了一些样式和依赖的问题，需要适应Vue组件的结构和Element Plus组件库的使用方式。通过查阅文档和进行调试，成功解决了这些问题。
+在处理删除操作时，遇到了异步操作的执行顺序导致的问题。通过使用await关键字等待异步操作完成，解决了删除不完全的问题。</t>
+  </si>
+  <si>
+    <t>通过将前端界面组件化，提高了代码的可重用性和可维护性。现在可以在其他地方轻松地使用这些组件，并且更容易对其进行修改和扩展。
+在组件化过程中，深入理解了Vue组件的结构和用法，并学会了使用Element Plus组件库来构建功能丰富的界面。
+遇到的问题和困难都是正常的开发过程中会遇到的挑战，通过查阅文档、调试和思考，成功解决了这些问题。这进一步提升了解决问题和调试技能。</t>
+  </si>
+  <si>
+    <t>2023年__8__月__31__日</t>
+  </si>
+  <si>
+    <t>完善各组件的功能
+修复已知的问题和 bug
+进行功能测试和用户界面优化。</t>
+  </si>
+  <si>
+    <t>成功完善了各组件的功能，根据需求进行了相应的修改和扩展。
+修复了已知的问题和 bug，并确保组件的稳定性和可靠性。
+进行了功能测试，确保各项功能正常工作，并对用户界面进行了一些优化和调整。</t>
+  </si>
+  <si>
+    <t>在进行功能扩展时，遇到了一些逻辑复杂的情况，需要仔细思考和设计解决方案。通过与团队成员的讨论和反复测试，成功解决了这些问题。
+在用户界面优化过程中，遇到了一些样式兼容性问题，不同浏览器上显示效果不一致。通过使用 CSS 兼容性解决方案和调试，解决了这些问题。</t>
+  </si>
+  <si>
+    <t>通过完善各组件的功能，提升了用户体验和系统的整体功能性。
+修复已知问题和 bug，增强了系统的稳定性和可靠性。
+在解决问题和优化界面的过程中，锻炼了分析和解决问题的能力，并加深了对前端技术和工具的理解。</t>
   </si>
 </sst>
 </file>
@@ -642,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +973,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,10 +1274,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1025,10 +1335,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1093,10 +1403,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1161,10 +1471,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1229,10 +1539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1297,10 +1607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1365,10 +1675,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1433,10 +1743,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1491,7 +1801,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1501,10 +1811,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1558,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB0F2C7-C9D7-42C5-BB92-53E6CF4F7B54}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1569,10 +1879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1612,6 +1922,74 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949774DB-45B1-4EE1-ADEC-11AEC4563CA1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1661,6 +2039,689 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0095CCC5-4257-4D6F-B099-DE335B1BA98D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED4098-36B8-490D-9C9F-C9CAC3AF9730}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5224D077-B56B-41D5-945E-2FE5D96E6513}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B064C9B-9735-4D37-AA97-B7A1097A240E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C87582-5F4C-44EA-AF5D-A319E3D4F6AD}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664ADC70-F1DA-479D-9789-28B42E35C164}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D41A0-D090-4E5F-85D5-22FB833272C5}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77529DB-CBDB-440B-90E6-463AB0FD120C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A805BC0B-39B0-4904-9E7E-C279BE5C4016}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD43F08-1007-41EB-8754-7F60CCF57AD6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A195C3-EEFF-4367-991C-221007BA42BE}">
   <dimension ref="A1:B6"/>
@@ -1676,10 +2737,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="60" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1728,6 +2789,272 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D59DBD-D4E9-4E78-AF17-1AD19D926140}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9893194-264F-473C-9B7C-6FE68D078DDE}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12806794-4D13-4314-9B39-AD1464860494}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A43CD2B-7266-498C-B1A3-DF332AB3AB13}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="113.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
@@ -1746,10 +3073,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1816,10 +3143,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1884,10 +3211,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1952,10 +3279,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2021,10 +3348,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2089,10 +3416,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="1" t="s">
